--- a/run_code.xlsx
+++ b/run_code.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagar/Desktop/pangolinsrule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0236AD4-EAAA-0C4C-8721-F30C9AEE10BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3018295E-2794-3843-B035-05054E1CC608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6004FD8-0EC8-E34A-A4E0-651E6F49FED9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{F6004FD8-0EC8-E34A-A4E0-651E6F49FED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,23 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>animal</t>
   </si>
   <si>
-    <t>search_terms</t>
-  </si>
-  <si>
-    <t>date_from</t>
-  </si>
-  <si>
-    <t>date_to</t>
-  </si>
-  <si>
-    <t>number of links</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -81,6 +69,21 @@
   </si>
   <si>
     <t>RUN_THIS_QUERY</t>
+  </si>
+  <si>
+    <t>cobra</t>
+  </si>
+  <si>
+    <t>numOfSearchResults</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>dateTo</t>
+  </si>
+  <si>
+    <t>dateFrom</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE21C082-A7A9-0741-9E7E-C1E3CFA74E70}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +473,7 @@
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="142" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40.5" bestFit="1" customWidth="1"/>
@@ -478,28 +481,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -507,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>20100101</v>
@@ -529,8 +532,36 @@
         <v>/Users/sagar/miniconda3/bin/python /Users/sagar/Desktop/pangolinsrule/search.py -a pangolin -s 'seize|seizure|poach' -f 20100101 -t 20201231 -n 10 -m 1 &gt; log.txt</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>20100101</v>
+      </c>
+      <c r="E3">
+        <v>20201231</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f>Sheet3!$B$1&amp;" "&amp;Sheet3!$B$2&amp;" -a "&amp;B3&amp;" -s "&amp;"'"&amp;C3&amp;"'"&amp;" -f "&amp;D3&amp;" -t "&amp;E3&amp;" -n "&amp;F3&amp;" -m "&amp;A3&amp;" &gt; log.txt"</f>
+        <v>/Users/sagar/miniconda3/bin/python /Users/sagar/Desktop/pangolinsrule/search.py -a cobra -s 'seize|seizure|poach' -f 20100101 -t 20201231 -n 10 -m 2 &gt; log.txt</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -546,18 +577,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -578,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
